--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2414FE8E-EED6-4465-B1F9-DFA873896CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643626C-F173-4792-9EFF-98F558A203D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$7</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>lang_code</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>TRUE</t>
-  </si>
-  <si>
-    <t>fra</t>
   </si>
   <si>
     <t>NTH</t>
@@ -508,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,10 +552,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -567,7 +564,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -578,22 +575,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -607,19 +604,19 @@
         <v>3101</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -627,22 +624,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
@@ -650,25 +647,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -676,102 +673,27 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="8">
         <v>3101</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="8">
-        <v>3101</v>
-      </c>
-      <c r="C10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="1" t="s">
         <v>10</v>
       </c>
     </row>

--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3643626C-F173-4792-9EFF-98F558A203D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72077E75-DA5A-464F-8422-5D76293DE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
   <si>
     <t>lang_code</t>
   </si>
@@ -84,15 +84,9 @@
     <t>Belize City</t>
   </si>
   <si>
-    <t>BLR/BZ</t>
-  </si>
-  <si>
     <t>cityTownVillage</t>
   </si>
   <si>
-    <t>BLR/BZ/3101</t>
-  </si>
-  <si>
     <t>Belice</t>
   </si>
   <si>
@@ -106,6 +100,15 @@
   </si>
   <si>
     <t>ciudad pueblo Villa</t>
+  </si>
+  <si>
+    <t>BLZ</t>
+  </si>
+  <si>
+    <t>BLZ/BZ</t>
+  </si>
+  <si>
+    <t>BLZ/BZ/3101</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
@@ -564,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -587,7 +590,7 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
@@ -610,10 +613,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
         <v>11</v>
@@ -627,16 +630,16 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
@@ -653,16 +656,16 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
         <v>13</v>
@@ -679,16 +682,16 @@
         <v>3101</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>

--- a/mosip_master/xlsx/zone.xlsx
+++ b/mosip_master/xlsx/zone.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72077E75-DA5A-464F-8422-5D76293DE0CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A072518-8122-4999-8BC5-1EF907D50B01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>lang_code</t>
   </si>
@@ -63,13 +63,7 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>NTH</t>
-  </si>
-  <si>
     <t>spa</t>
-  </si>
-  <si>
-    <t>BLR</t>
   </si>
   <si>
     <t>Belize</t>
@@ -511,7 +505,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,10 +549,10 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -567,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -578,22 +572,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
@@ -607,19 +601,19 @@
         <v>3101</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -627,22 +621,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>10</v>
@@ -650,25 +644,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" t="s">
         <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -676,25 +670,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="8">
         <v>3101</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
